--- a/Load/ontology/Gates/PROVIDE/doc/PROVIDE_raw_detection_template.xlsx
+++ b/Load/ontology/Gates/PROVIDE/doc/PROVIDE_raw_detection_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/Gates/PROVIDE/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FE4087-78FF-CF45-96F8-0744BDDF009D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D646F37-126F-E14B-AE6A-9B3C82E824A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2520" windowWidth="33600" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="620" windowWidth="23040" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="283">
   <si>
     <t>variable</t>
   </si>
@@ -800,6 +800,96 @@
   </si>
   <si>
     <t>Cytomegalovirus</t>
+  </si>
+  <si>
+    <t>ext_lab_bv_dsgene::rotag</t>
+  </si>
+  <si>
+    <t>ext_lab_bv_dsgene::rotap</t>
+  </si>
+  <si>
+    <t>Rotavirus genotype G</t>
+  </si>
+  <si>
+    <t>Rotavirus genotype P</t>
+  </si>
+  <si>
+    <t>ext_lab_bv_rptype::ptype1</t>
+  </si>
+  <si>
+    <t>ext_lab_bv_rptype::ptype2</t>
+  </si>
+  <si>
+    <t>sequencing</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>type 2</t>
+  </si>
+  <si>
+    <t>qRT-PCR</t>
+  </si>
+  <si>
+    <t>ext_lab_bv_qpcr::s1ct</t>
+  </si>
+  <si>
+    <t>multiplexed qRT-PCR</t>
+  </si>
+  <si>
+    <t>ext_lab_bv_qpcr::s2ct</t>
+  </si>
+  <si>
+    <t>ext_lab_bv_qpcr::s3ct</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi1::w52d4_s1adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi1::w52d11_s1adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi1::w52d18_s1adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi1::w52d25_s1adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi2::w52d4_s2adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi2::w52d11_s2adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi2::w52d18_s2adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi2::w52d25_s2adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi3::w52d4_s3adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi3::w52d11_s3adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi3::w52d18_s3adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi3::w52d25_s3adj1g</t>
+  </si>
+  <si>
+    <t>normalized copy number</t>
+  </si>
+  <si>
+    <t>Poliovirus serotype 1</t>
+  </si>
+  <si>
+    <t>Poliovirus serotype 2</t>
+  </si>
+  <si>
+    <t>Poliovirus serotype 3</t>
   </si>
 </sst>
 </file>
@@ -1685,18 +1775,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T123"/>
+  <dimension ref="A1:T142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I122" sqref="I122"/>
+      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
@@ -1709,8 +1799,7 @@
     <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="30.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="50" style="4" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1751,10 +1840,10 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1783,7 +1872,7 @@
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4241,7 +4330,7 @@
         <v>Helicobacter pylori Ct value, by TAC result</v>
       </c>
       <c r="O74" s="4" t="str">
-        <f t="shared" ref="O74:O123" si="5">TRIM("Raw "&amp;LOWER($E74)&amp;" data for "&amp;$B74)</f>
+        <f t="shared" ref="O74:O137" si="5">TRIM("Raw "&amp;LOWER($E74)&amp;" data for "&amp;$B74)</f>
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
@@ -5724,7 +5813,7 @@
         <v>247</v>
       </c>
       <c r="N121" s="4" t="str">
-        <f t="shared" ref="N121:N123" si="6">TRIM(IF($H121="",$G121,"")
+        <f t="shared" ref="N121:N124" si="6">TRIM(IF($H121="",$G121,"")
 &amp;IF($H121&lt;&gt;"",$H121,"")
 &amp;IF(AND($L121="LT",I121="ST")," LT-neg ST-pos",
 IF($I121&lt;&gt;""," "&amp;$I121,"")
@@ -5802,6 +5891,636 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
+    <row r="124" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G124" t="s">
+        <v>255</v>
+      </c>
+      <c r="N124" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>Rotavirus genotype G type, by qRT-PCR result</v>
+      </c>
+      <c r="O124" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>254</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G125" t="s">
+        <v>256</v>
+      </c>
+      <c r="N125" s="4" t="str">
+        <f>TRIM(IF($H125="",$G125,"")
+&amp;IF($H125&lt;&gt;"",$H125,"")
+&amp;IF(AND($L125="LT",I125="ST")," LT-neg ST-pos",
+IF($I125&lt;&gt;""," "&amp;$I125,"")
+&amp;IF(OR($I125="LT",$I125="ST",AND($D125="",$I125&lt;&gt;"")),"-pos","")
+&amp;IF($K125&lt;&gt;""," "&amp;$K125,"")
+&amp;IF($J125&lt;&gt;""," "&amp;$J125&amp;"-pos","")
+&amp;IF($L125&lt;&gt;""," "&amp;$L125&amp;"-neg",""))
+&amp;IF($D125&lt;&gt;""," "&amp;$D125,"")&amp;", by "&amp;$C125&amp;" result")</f>
+        <v>Rotavirus genotype P type, by qRT-PCR result</v>
+      </c>
+      <c r="O125" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G126" t="s">
+        <v>256</v>
+      </c>
+      <c r="N126" s="4" t="str">
+        <f t="shared" ref="N126:N128" si="7">TRIM(IF($H126="",$G126,"")
+&amp;IF($H126&lt;&gt;"",$H126,"")
+&amp;IF(AND($L126="LT",I126="ST")," LT-neg ST-pos",
+IF($I126&lt;&gt;""," "&amp;$I126,"")
+&amp;IF(OR($I126="LT",$I126="ST",AND($D126="",$I126&lt;&gt;"")),"-pos","")
+&amp;IF($K126&lt;&gt;""," "&amp;$K126,"")
+&amp;IF($J126&lt;&gt;""," "&amp;$J126&amp;"-pos","")
+&amp;IF($L126&lt;&gt;""," "&amp;$L126&amp;"-neg",""))
+&amp;IF($D126&lt;&gt;""," "&amp;$D126,"")&amp;", by "&amp;$C126&amp;" result")</f>
+        <v>Rotavirus genotype P type, by sequencing result</v>
+      </c>
+      <c r="O126" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>258</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G127" t="s">
+        <v>256</v>
+      </c>
+      <c r="N127" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Rotavirus genotype P type 2, by sequencing result</v>
+      </c>
+      <c r="O127" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>263</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G128" t="s">
+        <v>280</v>
+      </c>
+      <c r="H128" s="5"/>
+      <c r="N128" s="4" t="str">
+        <f t="shared" ref="N128:N130" si="8">TRIM(IF($H128="",$G128,"")
+&amp;IF($H128&lt;&gt;"",$H128,"")
+&amp;IF(AND($L128="LT",I128="ST")," LT-neg ST-pos",
+IF($I128&lt;&gt;""," "&amp;$I128,"")
+&amp;IF(OR($I128="LT",$I128="ST",AND($D128="",$I128&lt;&gt;"")),"-pos","")
+&amp;IF($K128&lt;&gt;""," "&amp;$K128,"")
+&amp;IF($J128&lt;&gt;""," "&amp;$J128&amp;"-pos","")
+&amp;IF($L128&lt;&gt;""," "&amp;$L128&amp;"-neg",""))
+&amp;IF($D128&lt;&gt;""," "&amp;$D128,"")&amp;", by "&amp;$C128&amp;" result")</f>
+        <v>Poliovirus serotype 1 Ct value, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O128" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>265</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G129" t="s">
+        <v>281</v>
+      </c>
+      <c r="N129" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>Poliovirus serotype 2 Ct value, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O129" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G130" t="s">
+        <v>282</v>
+      </c>
+      <c r="N130" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>Poliovirus serotype 3 Ct value, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O130" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G131" t="s">
+        <v>280</v>
+      </c>
+      <c r="N131" s="4" t="str">
+        <f t="shared" ref="N131" si="9">TRIM(IF($H131="",$G131,"")
+&amp;IF($H131&lt;&gt;"",$H131,"")
+&amp;IF(AND($L131="LT",I131="ST")," LT-neg ST-pos",
+IF($I131&lt;&gt;""," "&amp;$I131,"")
+&amp;IF(OR($I131="LT",$I131="ST",AND($D131="",$I131&lt;&gt;"")),"-pos","")
+&amp;IF($K131&lt;&gt;""," "&amp;$K131,"")
+&amp;IF($J131&lt;&gt;""," "&amp;$J131&amp;"-pos","")
+&amp;IF($L131&lt;&gt;""," "&amp;$L131&amp;"-neg",""))
+&amp;IF($D131&lt;&gt;""," "&amp;$D131,"")&amp;", by "&amp;$C131&amp;" result")</f>
+        <v>Poliovirus serotype 1 normalized copy number, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O131" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G132" t="s">
+        <v>280</v>
+      </c>
+      <c r="N132" s="4" t="str">
+        <f t="shared" ref="N132:N142" si="10">TRIM(IF($H132="",$G132,"")
+&amp;IF($H132&lt;&gt;"",$H132,"")
+&amp;IF(AND($L132="LT",I132="ST")," LT-neg ST-pos",
+IF($I132&lt;&gt;""," "&amp;$I132,"")
+&amp;IF(OR($I132="LT",$I132="ST",AND($D132="",$I132&lt;&gt;"")),"-pos","")
+&amp;IF($K132&lt;&gt;""," "&amp;$K132,"")
+&amp;IF($J132&lt;&gt;""," "&amp;$J132&amp;"-pos","")
+&amp;IF($L132&lt;&gt;""," "&amp;$L132&amp;"-neg",""))
+&amp;IF($D132&lt;&gt;""," "&amp;$D132,"")&amp;", by "&amp;$C132&amp;" result")</f>
+        <v>Poliovirus serotype 1 normalized copy number, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O132" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G133" t="s">
+        <v>280</v>
+      </c>
+      <c r="N133" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Poliovirus serotype 1 normalized copy number, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O133" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G134" t="s">
+        <v>280</v>
+      </c>
+      <c r="N134" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Poliovirus serotype 1 normalized copy number, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O134" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G135" t="s">
+        <v>281</v>
+      </c>
+      <c r="N135" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Poliovirus serotype 2 normalized copy number, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O135" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G136" t="s">
+        <v>281</v>
+      </c>
+      <c r="N136" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Poliovirus serotype 2 normalized copy number, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O136" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>273</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G137" t="s">
+        <v>281</v>
+      </c>
+      <c r="N137" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Poliovirus serotype 2 normalized copy number, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O137" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G138" t="s">
+        <v>281</v>
+      </c>
+      <c r="N138" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Poliovirus serotype 2 normalized copy number, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O138" s="4" t="str">
+        <f t="shared" ref="O138:O142" si="11">TRIM("Raw "&amp;LOWER($E138)&amp;" data for "&amp;$B138)</f>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>275</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G139" t="s">
+        <v>282</v>
+      </c>
+      <c r="N139" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Poliovirus serotype 3 normalized copy number, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O139" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G140" t="s">
+        <v>282</v>
+      </c>
+      <c r="N140" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Poliovirus serotype 3 normalized copy number, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O140" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G141" t="s">
+        <v>282</v>
+      </c>
+      <c r="N141" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Poliovirus serotype 3 normalized copy number, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O141" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G142" t="s">
+        <v>282</v>
+      </c>
+      <c r="N142" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Poliovirus serotype 3 normalized copy number, by multiplexed qRT-PCR result</v>
+      </c>
+      <c r="O142" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>Raw virus data for stool</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Load/ontology/Gates/PROVIDE/doc/PROVIDE_raw_detection_template.xlsx
+++ b/Load/ontology/Gates/PROVIDE/doc/PROVIDE_raw_detection_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/Gates/PROVIDE/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D646F37-126F-E14B-AE6A-9B3C82E824A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A4C8D9-4C1C-5646-8217-409643259EA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="620" windowWidth="23040" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14300" yWindow="3460" windowWidth="23040" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="275">
   <si>
     <t>variable</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>Norovirus GII</t>
-  </si>
-  <si>
-    <t>PhHV</t>
   </si>
   <si>
     <t>Salmonella</t>
@@ -844,42 +841,6 @@
     <t>ext_lab_bv_qpcr::s3ct</t>
   </si>
   <si>
-    <t>ext_mgmt_psi1::w52d4_s1adj1g</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi1::w52d11_s1adj1g</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi1::w52d18_s1adj1g</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi1::w52d25_s1adj1g</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi2::w52d4_s2adj1g</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi2::w52d11_s2adj1g</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi2::w52d18_s2adj1g</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi2::w52d25_s2adj1g</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi3::w52d4_s3adj1g</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi3::w52d11_s3adj1g</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi3::w52d18_s3adj1g</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi3::w52d25_s3adj1g</t>
-  </si>
-  <si>
     <t>normalized copy number</t>
   </si>
   <si>
@@ -890,6 +851,21 @@
   </si>
   <si>
     <t>Poliovirus serotype 3</t>
+  </si>
+  <si>
+    <t>Varicellovirus</t>
+  </si>
+  <si>
+    <t>Phocine herpesvirus (positive control)</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi1_2_3::s1adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi1_2_3::s2adj1g</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi1_2_3::s3adj1g</t>
   </si>
 </sst>
 </file>
@@ -1775,13 +1751,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T142"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
+      <selection pane="bottomRight" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1864,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -2198,10 +2174,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" ref="N10:N12" si="1">TRIM(IF($H10="",$G10,"")
@@ -2316,7 +2292,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>109</v>
@@ -2457,13 +2433,13 @@
         <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N17" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2488,13 +2464,13 @@
         <v>49</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="N18" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2519,13 +2495,13 @@
         <v>49</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="N19" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2550,13 +2526,13 @@
         <v>49</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N20" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2587,7 +2563,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N21" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2618,7 +2594,7 @@
         <v>59</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N22" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2708,10 +2684,10 @@
         <v>55</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N25" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2770,10 +2746,10 @@
         <v>55</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N27" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2798,19 +2774,19 @@
         <v>49</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="N28" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2835,19 +2811,19 @@
         <v>49</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N29" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2872,13 +2848,13 @@
         <v>49</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N30" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2934,19 +2910,19 @@
         <v>49</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N32" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2971,19 +2947,19 @@
         <v>49</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="N33" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3008,19 +2984,19 @@
         <v>49</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N34" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3045,19 +3021,19 @@
         <v>49</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="N35" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3082,19 +3058,19 @@
         <v>49</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N36" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3156,7 +3132,7 @@
         <v>56</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N38" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3187,7 +3163,7 @@
         <v>56</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N39" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3212,13 +3188,13 @@
         <v>49</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N40" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3242,9 +3218,11 @@
       <c r="D41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G41" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N41" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3252,7 +3230,7 @@
       </c>
       <c r="O41" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Raw data for stool</v>
+        <v>Raw eukaryota data for stool</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -3300,13 +3278,13 @@
         <v>49</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N43" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3334,10 +3312,10 @@
         <v>50</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N44" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3454,16 +3432,22 @@
       <c r="D48" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="E48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>270</v>
+      </c>
       <c r="G48" s="8" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="N48" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>PhHV Ct value, by TAC result</v>
+        <v>Phocine herpesvirus (positive control) Ct value, by TAC result</v>
       </c>
       <c r="O48" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Raw data for stool</v>
+        <v>Raw virus data for stool</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -3511,13 +3495,13 @@
         <v>49</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N50" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3573,19 +3557,19 @@
         <v>49</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H52" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="N52" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3610,19 +3594,19 @@
         <v>49</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N53" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3650,10 +3634,10 @@
         <v>55</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N54" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3681,10 +3665,10 @@
         <v>55</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N55" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3709,13 +3693,13 @@
         <v>49</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="N56" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3728,7 +3712,7 @@
     </row>
     <row r="57" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>42</v>
@@ -3740,11 +3724,11 @@
         <v>49</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -3767,7 +3751,7 @@
     </row>
     <row r="58" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>42</v>
@@ -3800,7 +3784,7 @@
     </row>
     <row r="59" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>42</v>
@@ -3815,10 +3799,10 @@
         <v>55</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -3833,7 +3817,7 @@
     </row>
     <row r="60" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>42</v>
@@ -3848,10 +3832,10 @@
         <v>55</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -3866,7 +3850,7 @@
     </row>
     <row r="61" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>42</v>
@@ -3881,10 +3865,10 @@
         <v>55</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -3899,7 +3883,7 @@
     </row>
     <row r="62" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>42</v>
@@ -3910,23 +3894,29 @@
       <c r="D62" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>118</v>
+      <c r="E62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="N62" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>PhHV Ct value, by TAC result</v>
+        <v>Phocine herpesvirus (positive control) Ct value, by TAC result</v>
       </c>
       <c r="O62" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Raw data for stool</v>
+        <v>Raw virus data for stool</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>42</v>
@@ -3959,7 +3949,7 @@
     </row>
     <row r="64" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>42</v>
@@ -3990,7 +3980,7 @@
     </row>
     <row r="65" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>42</v>
@@ -4002,19 +3992,19 @@
         <v>49</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H65" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I65" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="N65" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4027,7 +4017,7 @@
     </row>
     <row r="66" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>42</v>
@@ -4039,19 +4029,19 @@
         <v>49</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N66" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4064,7 +4054,7 @@
     </row>
     <row r="67" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>42</v>
@@ -4076,19 +4066,19 @@
         <v>49</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H67" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="N67" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4101,7 +4091,7 @@
     </row>
     <row r="68" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>42</v>
@@ -4113,19 +4103,19 @@
         <v>49</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="N68" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4138,7 +4128,7 @@
     </row>
     <row r="69" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>42</v>
@@ -4150,19 +4140,19 @@
         <v>49</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N69" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4175,7 +4165,7 @@
     </row>
     <row r="70" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>42</v>
@@ -4187,19 +4177,19 @@
         <v>49</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H70" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="N70" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4212,7 +4202,7 @@
     </row>
     <row r="71" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>42</v>
@@ -4224,19 +4214,19 @@
         <v>49</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N71" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4249,7 +4239,7 @@
     </row>
     <row r="72" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>42</v>
@@ -4260,8 +4250,11 @@
       <c r="D72" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="E72" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G72" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N72" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4269,12 +4262,12 @@
       </c>
       <c r="O72" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Raw data for stool</v>
+        <v>Raw eukaryota data for stool</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>42</v>
@@ -4286,13 +4279,13 @@
         <v>49</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N73" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4305,7 +4298,7 @@
     </row>
     <row r="74" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>42</v>
@@ -4317,26 +4310,26 @@
         <v>49</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N74" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Helicobacter pylori Ct value, by TAC result</v>
       </c>
       <c r="O74" s="4" t="str">
-        <f t="shared" ref="O74:O137" si="5">TRIM("Raw "&amp;LOWER($E74)&amp;" data for "&amp;$B74)</f>
+        <f t="shared" ref="O74:O132" si="5">TRIM("Raw "&amp;LOWER($E74)&amp;" data for "&amp;$B74)</f>
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>42</v>
@@ -4348,13 +4341,13 @@
         <v>49</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F75" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="N75" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4367,7 +4360,7 @@
     </row>
     <row r="76" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>42</v>
@@ -4379,13 +4372,13 @@
         <v>49</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N76" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4398,7 +4391,7 @@
     </row>
     <row r="77" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>42</v>
@@ -4410,13 +4403,13 @@
         <v>49</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F77" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="N77" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4429,7 +4422,7 @@
     </row>
     <row r="78" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>42</v>
@@ -4460,7 +4453,7 @@
     </row>
     <row r="79" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>42</v>
@@ -4491,7 +4484,7 @@
     </row>
     <row r="80" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>42</v>
@@ -4522,7 +4515,7 @@
     </row>
     <row r="81" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>42</v>
@@ -4553,7 +4546,7 @@
     </row>
     <row r="82" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>42</v>
@@ -4571,7 +4564,7 @@
         <v>113</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N82" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4584,7 +4577,7 @@
     </row>
     <row r="83" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>42</v>
@@ -4615,7 +4608,7 @@
     </row>
     <row r="84" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>42</v>
@@ -4630,10 +4623,10 @@
         <v>50</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N84" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4646,7 +4639,7 @@
     </row>
     <row r="85" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>42</v>
@@ -4664,7 +4657,7 @@
         <v>51</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N85" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4677,7 +4670,7 @@
     </row>
     <row r="86" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>42</v>
@@ -4695,7 +4688,7 @@
         <v>51</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N86" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4708,7 +4701,7 @@
     </row>
     <row r="87" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>42</v>
@@ -4726,7 +4719,7 @@
         <v>51</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N87" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4739,7 +4732,7 @@
     </row>
     <row r="88" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>42</v>
@@ -4757,7 +4750,7 @@
         <v>51</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H88" s="4"/>
       <c r="J88" s="8"/>
@@ -4772,7 +4765,7 @@
     </row>
     <row r="89" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>42</v>
@@ -4790,7 +4783,7 @@
         <v>51</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N89" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4803,7 +4796,7 @@
     </row>
     <row r="90" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>42</v>
@@ -4821,7 +4814,7 @@
         <v>51</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N90" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4834,7 +4827,7 @@
     </row>
     <row r="91" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>42</v>
@@ -4865,7 +4858,7 @@
     </row>
     <row r="92" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>42</v>
@@ -4896,7 +4889,7 @@
     </row>
     <row r="93" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>42</v>
@@ -4927,7 +4920,7 @@
     </row>
     <row r="94" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>42</v>
@@ -4942,10 +4935,10 @@
         <v>55</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N94" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4958,7 +4951,7 @@
     </row>
     <row r="95" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>42</v>
@@ -4990,7 +4983,7 @@
     </row>
     <row r="96" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>42</v>
@@ -5021,7 +5014,7 @@
     </row>
     <row r="97" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>42</v>
@@ -5039,7 +5032,7 @@
         <v>56</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="3"/>
@@ -5055,7 +5048,7 @@
     </row>
     <row r="98" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>42</v>
@@ -5073,7 +5066,7 @@
         <v>56</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N98" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5086,7 +5079,7 @@
     </row>
     <row r="99" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>42</v>
@@ -5104,7 +5097,7 @@
         <v>59</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N99" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5117,7 +5110,7 @@
     </row>
     <row r="100" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>42</v>
@@ -5135,7 +5128,7 @@
         <v>59</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N100" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5148,7 +5141,7 @@
     </row>
     <row r="101" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>42</v>
@@ -5179,7 +5172,7 @@
     </row>
     <row r="102" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>42</v>
@@ -5191,19 +5184,19 @@
         <v>49</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N102" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5216,7 +5209,7 @@
     </row>
     <row r="103" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>42</v>
@@ -5228,19 +5221,19 @@
         <v>49</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N103" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5253,7 +5246,7 @@
     </row>
     <row r="104" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>42</v>
@@ -5265,19 +5258,19 @@
         <v>49</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N104" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5290,7 +5283,7 @@
     </row>
     <row r="105" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>42</v>
@@ -5302,19 +5295,19 @@
         <v>49</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N105" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5327,7 +5320,7 @@
     </row>
     <row r="106" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>42</v>
@@ -5339,13 +5332,13 @@
         <v>49</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N106" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5358,7 +5351,7 @@
     </row>
     <row r="107" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>42</v>
@@ -5370,13 +5363,13 @@
         <v>49</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F107" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="N107" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5389,7 +5382,7 @@
     </row>
     <row r="108" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>42</v>
@@ -5401,13 +5394,13 @@
         <v>49</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N108" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5420,7 +5413,7 @@
     </row>
     <row r="109" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>42</v>
@@ -5432,13 +5425,13 @@
         <v>49</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N109" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5451,7 +5444,7 @@
     </row>
     <row r="110" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>42</v>
@@ -5463,7 +5456,7 @@
         <v>49</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>109</v>
@@ -5482,7 +5475,7 @@
     </row>
     <row r="111" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>42</v>
@@ -5513,7 +5506,7 @@
     </row>
     <row r="112" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>42</v>
@@ -5531,7 +5524,7 @@
         <v>113</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N112" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5544,7 +5537,7 @@
     </row>
     <row r="113" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>42</v>
@@ -5562,7 +5555,7 @@
         <v>113</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N113" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5575,7 +5568,7 @@
     </row>
     <row r="114" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>42</v>
@@ -5606,7 +5599,7 @@
     </row>
     <row r="115" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>42</v>
@@ -5624,7 +5617,7 @@
         <v>51</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N115" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5637,7 +5630,7 @@
     </row>
     <row r="116" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>42</v>
@@ -5655,7 +5648,7 @@
         <v>51</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N116" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5668,7 +5661,7 @@
     </row>
     <row r="117" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>42</v>
@@ -5686,7 +5679,7 @@
         <v>51</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N117" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5699,7 +5692,7 @@
     </row>
     <row r="118" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>42</v>
@@ -5717,7 +5710,7 @@
         <v>51</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N118" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5730,7 +5723,7 @@
     </row>
     <row r="119" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>42</v>
@@ -5748,7 +5741,7 @@
         <v>51</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N119" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5761,7 +5754,7 @@
     </row>
     <row r="120" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>42</v>
@@ -5779,7 +5772,7 @@
         <v>51</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N120" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5792,7 +5785,7 @@
     </row>
     <row r="121" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>42</v>
@@ -5810,7 +5803,7 @@
         <v>51</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N121" s="4" t="str">
         <f t="shared" ref="N121:N124" si="6">TRIM(IF($H121="",$G121,"")
@@ -5831,7 +5824,7 @@
     </row>
     <row r="122" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>42</v>
@@ -5849,7 +5842,7 @@
         <v>51</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N122" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5862,7 +5855,7 @@
     </row>
     <row r="123" spans="1:15" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>42</v>
@@ -5877,10 +5870,10 @@
         <v>50</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N123" s="12" t="str">
         <f t="shared" si="6"/>
@@ -5893,16 +5886,16 @@
     </row>
     <row r="124" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>50</v>
@@ -5911,7 +5904,7 @@
         <v>51</v>
       </c>
       <c r="G124" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N124" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5924,16 +5917,16 @@
     </row>
     <row r="125" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>50</v>
@@ -5942,7 +5935,7 @@
         <v>51</v>
       </c>
       <c r="G125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N125" s="4" t="str">
         <f>TRIM(IF($H125="",$G125,"")
@@ -5963,16 +5956,16 @@
     </row>
     <row r="126" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C126" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>50</v>
@@ -5981,10 +5974,10 @@
         <v>51</v>
       </c>
       <c r="G126" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N126" s="4" t="str">
-        <f t="shared" ref="N126:N128" si="7">TRIM(IF($H126="",$G126,"")
+        <f t="shared" ref="N126:N127" si="7">TRIM(IF($H126="",$G126,"")
 &amp;IF($H126&lt;&gt;"",$H126,"")
 &amp;IF(AND($L126="LT",I126="ST")," LT-neg ST-pos",
 IF($I126&lt;&gt;""," "&amp;$I126,"")
@@ -6002,16 +5995,16 @@
     </row>
     <row r="127" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="D127" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>50</v>
@@ -6020,7 +6013,7 @@
         <v>51</v>
       </c>
       <c r="G127" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N127" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6033,13 +6026,13 @@
     </row>
     <row r="128" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>49</v>
@@ -6051,7 +6044,7 @@
         <v>113</v>
       </c>
       <c r="G128" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H128" s="5"/>
       <c r="N128" s="4" t="str">
@@ -6073,13 +6066,13 @@
     </row>
     <row r="129" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>49</v>
@@ -6091,7 +6084,7 @@
         <v>113</v>
       </c>
       <c r="G129" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="N129" s="4" t="str">
         <f t="shared" si="8"/>
@@ -6104,13 +6097,13 @@
     </row>
     <row r="130" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>49</v>
@@ -6122,7 +6115,7 @@
         <v>113</v>
       </c>
       <c r="G130" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="N130" s="4" t="str">
         <f t="shared" si="8"/>
@@ -6135,16 +6128,16 @@
     </row>
     <row r="131" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>50</v>
@@ -6153,7 +6146,7 @@
         <v>113</v>
       </c>
       <c r="G131" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="N131" s="4" t="str">
         <f t="shared" ref="N131" si="9">TRIM(IF($H131="",$G131,"")
@@ -6174,16 +6167,16 @@
     </row>
     <row r="132" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>50</v>
@@ -6192,10 +6185,10 @@
         <v>113</v>
       </c>
       <c r="G132" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="N132" s="4" t="str">
-        <f t="shared" ref="N132:N142" si="10">TRIM(IF($H132="",$G132,"")
+        <f t="shared" ref="N132:N133" si="10">TRIM(IF($H132="",$G132,"")
 &amp;IF($H132&lt;&gt;"",$H132,"")
 &amp;IF(AND($L132="LT",I132="ST")," LT-neg ST-pos",
 IF($I132&lt;&gt;""," "&amp;$I132,"")
@@ -6204,7 +6197,7 @@
 &amp;IF($J132&lt;&gt;""," "&amp;$J132&amp;"-pos","")
 &amp;IF($L132&lt;&gt;""," "&amp;$L132&amp;"-neg",""))
 &amp;IF($D132&lt;&gt;""," "&amp;$D132,"")&amp;", by "&amp;$C132&amp;" result")</f>
-        <v>Poliovirus serotype 1 normalized copy number, by multiplexed qRT-PCR result</v>
+        <v>Poliovirus serotype 2 normalized copy number, by multiplexed qRT-PCR result</v>
       </c>
       <c r="O132" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6213,16 +6206,16 @@
     </row>
     <row r="133" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>50</v>
@@ -6231,293 +6224,14 @@
         <v>113</v>
       </c>
       <c r="G133" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N133" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Poliovirus serotype 1 normalized copy number, by multiplexed qRT-PCR result</v>
+        <v>Poliovirus serotype 3 normalized copy number, by multiplexed qRT-PCR result</v>
       </c>
       <c r="O133" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Raw virus data for stool</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>270</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G134" t="s">
-        <v>280</v>
-      </c>
-      <c r="N134" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Poliovirus serotype 1 normalized copy number, by multiplexed qRT-PCR result</v>
-      </c>
-      <c r="O134" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Raw virus data for stool</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>271</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G135" t="s">
-        <v>281</v>
-      </c>
-      <c r="N135" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Poliovirus serotype 2 normalized copy number, by multiplexed qRT-PCR result</v>
-      </c>
-      <c r="O135" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Raw virus data for stool</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>272</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G136" t="s">
-        <v>281</v>
-      </c>
-      <c r="N136" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Poliovirus serotype 2 normalized copy number, by multiplexed qRT-PCR result</v>
-      </c>
-      <c r="O136" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Raw virus data for stool</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>273</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G137" t="s">
-        <v>281</v>
-      </c>
-      <c r="N137" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Poliovirus serotype 2 normalized copy number, by multiplexed qRT-PCR result</v>
-      </c>
-      <c r="O137" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Raw virus data for stool</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>274</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G138" t="s">
-        <v>281</v>
-      </c>
-      <c r="N138" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Poliovirus serotype 2 normalized copy number, by multiplexed qRT-PCR result</v>
-      </c>
-      <c r="O138" s="4" t="str">
-        <f t="shared" ref="O138:O142" si="11">TRIM("Raw "&amp;LOWER($E138)&amp;" data for "&amp;$B138)</f>
-        <v>Raw virus data for stool</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>275</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G139" t="s">
-        <v>282</v>
-      </c>
-      <c r="N139" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Poliovirus serotype 3 normalized copy number, by multiplexed qRT-PCR result</v>
-      </c>
-      <c r="O139" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>Raw virus data for stool</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>276</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G140" t="s">
-        <v>282</v>
-      </c>
-      <c r="N140" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Poliovirus serotype 3 normalized copy number, by multiplexed qRT-PCR result</v>
-      </c>
-      <c r="O140" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>Raw virus data for stool</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>277</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G141" t="s">
-        <v>282</v>
-      </c>
-      <c r="N141" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Poliovirus serotype 3 normalized copy number, by multiplexed qRT-PCR result</v>
-      </c>
-      <c r="O141" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>Raw virus data for stool</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>278</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G142" t="s">
-        <v>282</v>
-      </c>
-      <c r="N142" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Poliovirus serotype 3 normalized copy number, by multiplexed qRT-PCR result</v>
-      </c>
-      <c r="O142" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="O133" si="11">TRIM("Raw "&amp;LOWER($E133)&amp;" data for "&amp;$B133)</f>
         <v>Raw virus data for stool</v>
       </c>
     </row>
